--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khair\OneDrive\Documents\UiPath\INTAN_ResetPassword\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D61A25B-1AE6-483A-9436-778CB9668652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB52BC61-D1A1-4B32-B3A8-F8DD8C76C1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -165,9 +165,6 @@
     <t>str_Password</t>
   </si>
   <si>
-    <t>int#n123</t>
-  </si>
-  <si>
     <t>https://esupport.intan.my/home</t>
   </si>
   <si>
@@ -178,6 +175,15 @@
   </si>
   <si>
     <t>str_EPSA_URL</t>
+  </si>
+  <si>
+    <t>str_Subjek_Emel</t>
+  </si>
+  <si>
+    <t>Lupa Kata Laluan | Status updated</t>
+  </si>
+  <si>
+    <t>Fhsb12345!@#$%</t>
   </si>
 </sst>
 </file>
@@ -557,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1637,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -1826,26 +1832,33 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B20" t="s">
-        <v>49</v>
+      <c r="B21" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2812,7 +2825,6 @@
     <row r="985" ht="14.25" customHeight="1"/>
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khair\OneDrive\Documents\UiPath\INTAN_ResetPassword\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB52BC61-D1A1-4B32-B3A8-F8DD8C76C1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D6EBE9-7E29-4D59-B3EF-E9C75D56C37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -184,13 +184,49 @@
   </si>
   <si>
     <t>Fhsb12345!@#$%</t>
+  </si>
+  <si>
+    <t>https://demo.epsa.gov.my/admin/user.php?lang=en</t>
+  </si>
+  <si>
+    <t>str_EPSA_Admin_EN_URL</t>
+  </si>
+  <si>
+    <t>https://esupport.intan.my/create-ticket</t>
+  </si>
+  <si>
+    <t>str_Esupport_CreateTicket_URL</t>
+  </si>
+  <si>
+    <t>email_support</t>
+  </si>
+  <si>
+    <t>khairahnazurahkarim@gmail.com</t>
+  </si>
+  <si>
+    <t>Report_Summary_Column</t>
+  </si>
+  <si>
+    <t>id;new_email;ic;status;exception message</t>
+  </si>
+  <si>
+    <t>str_Credential_Esupport</t>
+  </si>
+  <si>
+    <t>str_Credential_EPSA</t>
+  </si>
+  <si>
+    <t>https://demo.epsa.gov.my/login/index.php</t>
+  </si>
+  <si>
+    <t>str_EPSA_Login_URL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -214,6 +250,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,10 +280,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,8 +294,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -563,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1643,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z987"/>
+  <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -1839,33 +1893,82 @@
       <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2825,9 +2928,15 @@
     <row r="985" ht="14.25" customHeight="1"/>
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{AA5B1AAF-30E6-4313-AF5D-37F2D7E3914C}"/>
+    <hyperlink ref="B27" r:id="rId2" xr:uid="{C40A30E4-88FF-46CF-B224-558EBF248FE1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
